--- a/biology/Zoologie/Hespérie_levantine/Hespérie_levantine.xlsx
+++ b/biology/Zoologie/Hespérie_levantine/Hespérie_levantine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_levantine</t>
+          <t>Hespérie_levantine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodus orientalis
 L’Hespérie levantine (Carcharodus orientalis) est un lépidoptère (papillon) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Carcharodus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_levantine</t>
+          <t>Hespérie_levantine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carcharodus orientalis a été nommée par Jacques-Louis Reverdin en 1913[1].
-Noms vernaculaires
-L’Hespérie levantine se nomme en anglais Oriental Skipper, en grec Ανατολική εσπερίδα et en turc Oryantal zipzip[1],[2],[3].
-Sous-espèce
-Carcharodus orientalis teberdininus Devyatkin, 1990[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcharodus orientalis a été nommée par Jacques-Louis Reverdin en 1913.
 </t>
         </is>
       </c>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_levantine</t>
+          <t>Hespérie_levantine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus marbré de marron clair et d'ocre orné de marques blanches et au revers des ailes antérieures plus claires et des ailes postérieures très pâles[4],[5].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Hespérie levantine se nomme en anglais Oriental Skipper, en grec Ανατολική εσπερίδα et en turc Oryantal zipzip.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_levantine</t>
+          <t>Hespérie_levantine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,16 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux ou trois générations entre avril et août.
-Il hiverne au stade de chenille[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Stachys[4].
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcharodus orientalis teberdininus Devyatkin, 1990.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_levantine</t>
+          <t>Hespérie_levantine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,16 +628,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus marbré de marron clair et d'ocre orné de marques blanches et au revers des ailes antérieures plus claires et des ailes postérieures très pâles,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_levantine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_levantine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux ou trois générations entre avril et août.
+Il hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_levantine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_levantine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Stachys.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_levantine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_levantine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Europe  dans le nord de la Hongrie, le sud de la Serbie, en Macédoine, Albanie, Bulgarie, Grèce, en Turquie et au Moyen-Orient jusqu'au nord de l'Iran et en Palestine [1],[4].
-Biotope
-Il réside dans les lieux broussailleux herbus fleuris secs et chauds[4].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Europe  dans le nord de la Hongrie, le sud de la Serbie, en Macédoine, Albanie, Bulgarie, Grèce, en Turquie et au Moyen-Orient jusqu'au nord de l'Iran et en Palestine ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_levantine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_levantine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux broussailleux herbus fleuris secs et chauds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_levantine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_levantine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
